--- a/data/Game/Note.xlsx
+++ b/data/Game/Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C1A0B3-D8C2-43CC-8DF2-7E255E14AAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD94604-10C6-4D7E-813F-B5A1D218BB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2940" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -555,12 +555,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -611,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -662,7 +662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -696,7 +696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -747,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>

--- a/data/Game/Note.xlsx
+++ b/data/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>
